--- a/2024/shuffle-architecute/Teste10/content/results/metrics_3_4.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_3_4.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9202097992935209</v>
+        <v>0.9474131785495074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7199907610408234</v>
+        <v>0.7553813173641324</v>
       </c>
       <c r="D2" t="n">
-        <v>0.924551480737378</v>
+        <v>0.9833428389510863</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3125613860121523</v>
+        <v>0.5262777807884098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7226043177968825</v>
+        <v>0.8489488620002966</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3348624110221863</v>
+        <v>0.2206956148147583</v>
       </c>
       <c r="H2" t="n">
-        <v>1.87242317199707</v>
+        <v>1.635766267776489</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08141402155160904</v>
+        <v>0.01352611649781466</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6543044447898865</v>
+        <v>0.6507991552352905</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3678592443466187</v>
+        <v>0.3321624994277954</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.919496293032448</v>
+        <v>0.9472217354184963</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7193866484541837</v>
+        <v>0.7546182550932725</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9279937341026439</v>
+        <v>0.9841858323732637</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3023462056728523</v>
+        <v>0.5326764304737777</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7259247779025688</v>
+        <v>0.8511031883091074</v>
       </c>
       <c r="G3" t="n">
-        <v>0.33785679936409</v>
+        <v>0.2214990854263306</v>
       </c>
       <c r="H3" t="n">
-        <v>1.876462817192078</v>
+        <v>1.640868902206421</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07769960165023804</v>
+        <v>0.01284158043563366</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6492122411727905</v>
+        <v>0.6420086622238159</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3634559214115143</v>
+        <v>0.3274251520633698</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9187559113067901</v>
+        <v>0.9470223629367284</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7187685969899424</v>
+        <v>0.7538357287432228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9311997208619035</v>
+        <v>0.9849895445372883</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2919175924254378</v>
+        <v>0.5391568549856931</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7291892159128125</v>
+        <v>0.8532758479473801</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3409640789031982</v>
+        <v>0.2223358154296875</v>
       </c>
       <c r="H4" t="n">
-        <v>1.880595684051514</v>
+        <v>1.646101713180542</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07424012571573257</v>
+        <v>0.01218894124031067</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6440136432647705</v>
+        <v>0.6331058740615845</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3591268956661224</v>
+        <v>0.3226474523544312</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9179881626779194</v>
+        <v>0.9468151810410503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7181364622129822</v>
+        <v>0.7530332238131664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.934166997457085</v>
+        <v>0.9857533208463208</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2812737256398672</v>
+        <v>0.5457253488313782</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7323969986394374</v>
+        <v>0.8554686123784656</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3441860973834991</v>
+        <v>0.2232052981853485</v>
       </c>
       <c r="H5" t="n">
-        <v>1.884822845458984</v>
+        <v>1.65146803855896</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07103823125362396</v>
+        <v>0.01156873255968094</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6387077569961548</v>
+        <v>0.624082088470459</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3548730313777924</v>
+        <v>0.3178255259990692</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.917192540370017</v>
+        <v>0.9466001947739735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7174900002303801</v>
+        <v>0.7522101567835666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9368934310747332</v>
+        <v>0.9864773674567905</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2704155861583901</v>
+        <v>0.5523865462131299</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7355470672863869</v>
+        <v>0.8576831016640774</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3475251793861389</v>
+        <v>0.2241075485944748</v>
       </c>
       <c r="H6" t="n">
-        <v>1.889145851135254</v>
+        <v>1.65697193145752</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06809622794389725</v>
+        <v>0.01098078489303589</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6332950592041016</v>
+        <v>0.6149309873580933</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3506956398487091</v>
+        <v>0.3129558563232422</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9163684447126975</v>
+        <v>0.9463774415412652</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7168290166313384</v>
+        <v>0.7513659580019034</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9393767509837211</v>
+        <v>0.9871621841331695</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2593445938669283</v>
+        <v>0.5591437951329061</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7386382392840065</v>
+        <v>0.8599203250083961</v>
       </c>
       <c r="G7" t="n">
-        <v>0.350983738899231</v>
+        <v>0.225042387843132</v>
       </c>
       <c r="H7" t="n">
-        <v>1.893565654754639</v>
+        <v>1.662616968154907</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06541655957698822</v>
+        <v>0.01042469311505556</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6277762055397034</v>
+        <v>0.60564786195755</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3465963900089264</v>
+        <v>0.308036208152771</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9155153364158233</v>
+        <v>0.9461466383964833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7161532508232067</v>
+        <v>0.7505000470989661</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9416157063417662</v>
+        <v>0.9878091140462388</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2480612679112724</v>
+        <v>0.5659961867892112</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7416699125610352</v>
+        <v>0.8621802009633099</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3545640707015991</v>
+        <v>0.2260110527276993</v>
       </c>
       <c r="H8" t="n">
-        <v>1.89808452129364</v>
+        <v>1.668407440185547</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06300057470798492</v>
+        <v>0.009899366647005081</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6221514940261841</v>
+        <v>0.5962340831756592</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3425760567188263</v>
+        <v>0.3030667304992676</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9146327177544481</v>
+        <v>0.9459073761825755</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7154625329301287</v>
+        <v>0.7496118510517489</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9436085962299902</v>
+        <v>0.9884194262479521</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2365657292619663</v>
+        <v>0.5729375608415999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7446413121587634</v>
+        <v>0.8644611374268436</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3582682013511658</v>
+        <v>0.2270151674747467</v>
       </c>
       <c r="H9" t="n">
-        <v>1.902703404426575</v>
+        <v>1.674346685409546</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0608501136302948</v>
+        <v>0.00940377451479435</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6164210438728333</v>
+        <v>0.5866979956626892</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3386355936527252</v>
+        <v>0.2980509102344513</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9137200668087664</v>
+        <v>0.9456589317491148</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7147566024866419</v>
+        <v>0.7487009012552772</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9453545132871263</v>
+        <v>0.9889952967065144</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2248595857996969</v>
+        <v>0.5799576808500226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7475518673793464</v>
+        <v>0.8667603380940433</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3620983958244324</v>
+        <v>0.2280578166246414</v>
       </c>
       <c r="H10" t="n">
-        <v>1.907423853874207</v>
+        <v>1.680438280105591</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05896615236997604</v>
+        <v>0.008936150930821896</v>
       </c>
       <c r="J10" t="n">
-        <v>0.610585629940033</v>
+        <v>0.5770537853240967</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3347758650779724</v>
+        <v>0.2929949760437012</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9127767808045886</v>
+        <v>0.945400099810819</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7140352069123153</v>
+        <v>0.7477668188112723</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9468526832214902</v>
+        <v>0.9895390868305624</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.212944680106689</v>
+        <v>0.5870347310927527</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7504008408154723</v>
+        <v>0.8690713606975327</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3660571575164795</v>
+        <v>0.2291440963745117</v>
       </c>
       <c r="H11" t="n">
-        <v>1.912247896194458</v>
+        <v>1.686684489250183</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05734952539205551</v>
+        <v>0.008494576439261436</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6046461462974548</v>
+        <v>0.5673313140869141</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3309977948665619</v>
+        <v>0.2879129946231842</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9118024090670931</v>
+        <v>0.9451291232527987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7132981247238332</v>
+        <v>0.7468094830324461</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9481027050239992</v>
+        <v>0.9900530150955204</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2008236856786727</v>
+        <v>0.5941366227058766</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7531875842948921</v>
+        <v>0.8713847260763056</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3701463937759399</v>
+        <v>0.2302813082933426</v>
       </c>
       <c r="H12" t="n">
-        <v>1.917176723480225</v>
+        <v>1.69308614730835</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05600066855549812</v>
+        <v>0.008077251724898815</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5986039042472839</v>
+        <v>0.5575747489929199</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3273022472858429</v>
+        <v>0.2828259170055389</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9107962862558576</v>
+        <v>0.9448436198448006</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7125451038400779</v>
+        <v>0.7458289949119268</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9491045867860388</v>
+        <v>0.9905395389275969</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1884979184789985</v>
+        <v>0.6012192757883092</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7559118466382402</v>
+        <v>0.8736869930570902</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3743688464164734</v>
+        <v>0.2314795106649399</v>
       </c>
       <c r="H13" t="n">
-        <v>1.922212243080139</v>
+        <v>1.699642658233643</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05491957068443298</v>
+        <v>0.007682179566472769</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5924595594406128</v>
+        <v>0.5478445887565613</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3236895501613617</v>
+        <v>0.2777631878852844</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9097579504628099</v>
+        <v>0.9445403052355527</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7117758971821655</v>
+        <v>0.7448259811438191</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9498584358533283</v>
+        <v>0.9910005579980724</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1759704380348817</v>
+        <v>0.6082201075962467</v>
       </c>
       <c r="F14" t="n">
-        <v>0.758573119166151</v>
+        <v>0.8759587943510267</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3787265717983246</v>
+        <v>0.2327524572610855</v>
       </c>
       <c r="H14" t="n">
-        <v>1.927355885505676</v>
+        <v>1.706349849700928</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05410611629486084</v>
+        <v>0.007307818159461021</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5862146615982056</v>
+        <v>0.538226842880249</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3201604187488556</v>
+        <v>0.2727674841880798</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.908686856917456</v>
+        <v>0.9442151117278599</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7109902251000304</v>
+        <v>0.7438014475054097</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9503649360019151</v>
+        <v>0.991437985078049</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1632433363427193</v>
+        <v>0.615060813573893</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7611712699353875</v>
+        <v>0.8781764289876292</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3832217454910278</v>
+        <v>0.2341172397136688</v>
       </c>
       <c r="H15" t="n">
-        <v>1.932609796524048</v>
+        <v>1.713200926780701</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0535595715045929</v>
+        <v>0.006952614057809114</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5798702239990234</v>
+        <v>0.5288290977478027</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3167149424552917</v>
+        <v>0.2678908705711365</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9075823220336628</v>
+        <v>0.9438629487838761</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7101878291444736</v>
+        <v>0.7427570859177466</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9506248157801817</v>
+        <v>0.9918529198536586</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1503207329399567</v>
+        <v>0.6216438584546462</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7637058644462483</v>
+        <v>0.880309392296394</v>
       </c>
       <c r="G16" t="n">
-        <v>0.38785719871521</v>
+        <v>0.2355951815843582</v>
       </c>
       <c r="H16" t="n">
-        <v>1.937975287437439</v>
+        <v>1.720184564590454</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05327914282679558</v>
+        <v>0.006615674123167992</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5734284520149231</v>
+        <v>0.5197853446006775</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3133537769317627</v>
+        <v>0.2632004916667938</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9064439847718244</v>
+        <v>0.9434779569217443</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7093684535984667</v>
+        <v>0.7416950598844702</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9506395476045838</v>
+        <v>0.9922461361193664</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1372035098840165</v>
+        <v>0.627856350528366</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7661772771963042</v>
+        <v>0.882322573548325</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3926345705986023</v>
+        <v>0.2372109293937683</v>
       </c>
       <c r="H17" t="n">
-        <v>1.943454504013062</v>
+        <v>1.727286338806152</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05326324701309204</v>
+        <v>0.006296371109783649</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5668895244598389</v>
+        <v>0.5112506151199341</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3100763857364655</v>
+        <v>0.2587734758853912</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9052711887124328</v>
+        <v>0.9430536481765501</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7085318028568794</v>
+        <v>0.7406180544710487</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9504106551370209</v>
+        <v>0.992618011625154</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1238983095787289</v>
+        <v>0.6335734673708202</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7685848952596201</v>
+        <v>0.8841771332678812</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3975565433502197</v>
+        <v>0.2389916479587555</v>
       </c>
       <c r="H18" t="n">
-        <v>1.949049115180969</v>
+        <v>1.734488248825073</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05351023375988007</v>
+        <v>0.005994397215545177</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5602569580078125</v>
+        <v>0.5033964514732361</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3068836033344269</v>
+        <v>0.2546952962875366</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9040634025418156</v>
+        <v>0.9425833868543104</v>
       </c>
       <c r="C19" t="n">
-        <v>0.707677595484571</v>
+        <v>0.7395290036249372</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9499400900197618</v>
+        <v>0.9929686532068523</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1104073435898321</v>
+        <v>0.6386695559392461</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7709291067406874</v>
+        <v>0.8858335936903977</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4026253819465637</v>
+        <v>0.2409652322530746</v>
       </c>
       <c r="H19" t="n">
-        <v>1.954761266708374</v>
+        <v>1.74177074432373</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05401800572872162</v>
+        <v>0.005709665827453136</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5535317659378052</v>
+        <v>0.4963954389095306</v>
       </c>
       <c r="K19" t="n">
-        <v>0.303774893283844</v>
+        <v>0.2510527372360229</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9028199814287766</v>
+        <v>0.9420609025394752</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7068055368686255</v>
+        <v>0.7384308381570093</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9492298882612583</v>
+        <v>0.9932984386952951</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.09673469245461486</v>
+        <v>0.6430260928502076</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7732099582541827</v>
+        <v>0.887255376202122</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4078437387943268</v>
+        <v>0.2431579530239105</v>
       </c>
       <c r="H20" t="n">
-        <v>1.960592746734619</v>
+        <v>1.749114155769348</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05478436127305031</v>
+        <v>0.005441869609057903</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5467160940170288</v>
+        <v>0.4904104471206665</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3007502257823944</v>
+        <v>0.2479262202978134</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.901540519045646</v>
+        <v>0.9414809363700298</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7059153437669272</v>
+        <v>0.7373262452633065</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9482830375248242</v>
+        <v>0.9936080005430814</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.08288374755192041</v>
+        <v>0.6465465014549494</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7754280456076568</v>
+        <v>0.8884122084836753</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4132133722305298</v>
+        <v>0.2455919831991196</v>
       </c>
       <c r="H21" t="n">
-        <v>1.966545462608337</v>
+        <v>1.756500601768494</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05580607801675797</v>
+        <v>0.005190496332943439</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5398114323616028</v>
+        <v>0.4855740964412689</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2978087663650513</v>
+        <v>0.2453823387622833</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9002243864102748</v>
+        <v>0.9408395592227213</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7050066720823351</v>
+        <v>0.7362173937212365</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9471020274759453</v>
+        <v>0.9938984486084875</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.06886075427800242</v>
+        <v>0.6491639926342789</v>
       </c>
       <c r="F22" t="n">
-        <v>0.777583250859833</v>
+        <v>0.8892835003048423</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4187368750572205</v>
+        <v>0.248283714056015</v>
       </c>
       <c r="H22" t="n">
-        <v>1.97262179851532</v>
+        <v>1.763915538787842</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0570804700255394</v>
+        <v>0.004954643547534943</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5328210592269897</v>
+        <v>0.481978178024292</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2949507236480713</v>
+        <v>0.2434663623571396</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8988710065037295</v>
+        <v>0.9401346965609234</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7040792696057609</v>
+        <v>0.7351060225047538</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9456906929999771</v>
+        <v>0.9941714329000828</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.05466887654971497</v>
+        <v>0.650849091887082</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7796764209756817</v>
+        <v>0.8898602233867465</v>
       </c>
       <c r="G23" t="n">
-        <v>0.424416720867157</v>
+        <v>0.2512418627738953</v>
       </c>
       <c r="H23" t="n">
-        <v>1.978823304176331</v>
+        <v>1.771347284317017</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05860339105129242</v>
+        <v>0.004732972010970116</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5257465243339539</v>
+        <v>0.4796631932258606</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2921749353408813</v>
+        <v>0.2421981394290924</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8974798282265489</v>
+        <v>0.9393659077403926</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7031327793321666</v>
+        <v>0.7339933441274984</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9440523580382297</v>
+        <v>0.9944288731779302</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.04031459820139172</v>
+        <v>0.6516045571939766</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7817077788453413</v>
+        <v>0.890143746366047</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4302552342414856</v>
+        <v>0.2544683218002319</v>
       </c>
       <c r="H24" t="n">
-        <v>1.985152363777161</v>
+        <v>1.778787732124329</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06037126481533051</v>
+        <v>0.00452392315492034</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5185909867286682</v>
+        <v>0.4786253571510315</v>
       </c>
       <c r="K24" t="n">
-        <v>0.28948113322258</v>
+        <v>0.2415746748447418</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8960502976032757</v>
+        <v>0.9385343724751348</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7021668721784495</v>
+        <v>0.7328802333799718</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9421915250693346</v>
+        <v>0.9946729347565493</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.02580212844748386</v>
+        <v>0.6514651079350157</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7836783471825247</v>
+        <v>0.8901452666524994</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4362546801567078</v>
+        <v>0.2579580843448639</v>
       </c>
       <c r="H25" t="n">
-        <v>1.991611480712891</v>
+        <v>1.78623104095459</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06237923353910446</v>
+        <v>0.004325737711042166</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5113565921783447</v>
+        <v>0.4788169264793396</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2868679165840149</v>
+        <v>0.2415713369846344</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8945817889848984</v>
+        <v>0.9376422465775638</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7011812389035763</v>
+        <v>0.7317672827639625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9401121439842116</v>
+        <v>0.9949054692625937</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01113768652845204</v>
+        <v>0.6504858188954741</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7855885693533786</v>
+        <v>0.8898823302187239</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4424176514148712</v>
+        <v>0.2617021501064301</v>
       </c>
       <c r="H26" t="n">
-        <v>1.998202443122864</v>
+        <v>1.793673515319824</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06462302058935165</v>
+        <v>0.004136912524700165</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5040464401245117</v>
+        <v>0.4801622629165649</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2843347191810608</v>
+        <v>0.2421495467424393</v>
       </c>
     </row>
   </sheetData>
